--- a/dataset/day_11.xlsx
+++ b/dataset/day_11.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>G((Lab.AirQuality.low &amp; Lab.HumanState.detected) -&gt; (F[0, 10*60] Lab.air_quality_up))</t>
+          <t>#7</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>G((Corridor.Speaker.on) -&gt; (F[0, 1*60] !(Corridor.Speaker.on)))</t>
+          <t>#10</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -16543,7 +16543,7 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -18235,7 +18235,7 @@
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -24807,7 +24807,7 @@
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -27179,7 +27179,7 @@
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -28831,7 +28831,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -30283,7 +30283,7 @@
       </c>
       <c r="H743" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -31095,7 +31095,7 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
@@ -31147,7 +31147,7 @@
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -36719,7 +36719,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -37251,7 +37251,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -38543,7 +38543,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -42075,7 +42075,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>G(Lab.humidity_up -&gt; (F[0, 60*60] !Lab.humidity_up))</t>
+          <t>#6</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -42487,7 +42487,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -44539,7 +44539,7 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.MicrowaveOven.on))</t>
+          <t>#4</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -45471,7 +45471,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -46923,7 +46923,7 @@
       </c>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -47575,7 +47575,7 @@
       </c>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -48907,7 +48907,7 @@
       </c>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -51079,7 +51079,7 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -52811,7 +52811,7 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>G(MeetingRoomOne.human_undetected -&gt; (F[0, 30] MeetingRoomOne.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -62183,7 +62183,7 @@
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1536" t="inlineStr">
@@ -63635,7 +63635,7 @@
       </c>
       <c r="H1572" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1572" t="inlineStr">
@@ -65847,7 +65847,7 @@
       </c>
       <c r="H1627" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I1627" t="inlineStr">
@@ -66539,7 +66539,7 @@
       </c>
       <c r="H1644" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1644" t="inlineStr">
@@ -66631,7 +66631,7 @@
       </c>
       <c r="H1646" t="inlineStr">
         <is>
-          <t>G (TeaRoom.human_undetected &amp; !(TeaRoom.WaterDispenser.on))</t>
+          <t>#5</t>
         </is>
       </c>
       <c r="I1646" t="inlineStr">
@@ -69203,7 +69203,7 @@
       </c>
       <c r="H1710" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I1710" t="inlineStr">
@@ -70375,7 +70375,7 @@
       </c>
       <c r="H1739" t="inlineStr">
         <is>
-          <t>G(MeetingRoomTwo.human_undetected -&gt; (F[0, 30] MeetingRoomTwo.Light.off))</t>
+          <t>#8</t>
         </is>
       </c>
       <c r="I1739" t="inlineStr">
@@ -73467,7 +73467,7 @@
       </c>
       <c r="H1816" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I1816" t="inlineStr">
